--- a/4523 JP.xlsx
+++ b/4523 JP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF0DBC-23E9-4177-9F84-8AC3E3D6765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D0BBE-BE93-490C-BB6A-571C4C8225FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="45" windowWidth="30405" windowHeight="20670" activeTab="1" xr2:uid="{946D9990-1487-43B7-9903-781AF13E65FA}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{946D9990-1487-43B7-9903-781AF13E65FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Price JPY</t>
   </si>
@@ -328,6 +328,30 @@
   </si>
   <si>
     <t>Methycobal CH</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -456,11 +480,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -470,7 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -560,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC82C6-A62B-41C1-B0EB-2FB45B1695A0}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -872,311 +894,269 @@
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>7534</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44933</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="12">
-        <v>286.74599999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="K3" s="11">
+        <v>286.34741200000002</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>2160344.3640000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+        <v>1724384.115064</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5">
-        <f>268002+45868</f>
-        <v>313870</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="K5" s="11">
+        <f>303935+59620</f>
+        <v>363555</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="K6" s="11">
+        <f>47548+134786+16608+39481</f>
+        <v>238423</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="K7" s="11">
+        <f>+K4-K5+K6</f>
+        <v>1599252.115064</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
@@ -1200,912 +1180,952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF92CCD9-B450-44A6-A5E5-E1617EC33FE0}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="14"/>
-    <col min="9" max="9" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="14"/>
-    <col min="13" max="13" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="14"/>
+    <col min="3" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="12"/>
+    <col min="9" max="9" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="12"/>
+    <col min="13" max="13" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="12"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C2" s="15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="13">
         <v>44012</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>44104</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>44196</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>44286</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>44377</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>44469</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>44561</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>44651</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="13">
         <v>44742</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>44834</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="13">
         <v>44926</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="13">
         <v>45016</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="14" t="s">
+      <c r="O2" s="13">
+        <v>45107</v>
+      </c>
+      <c r="P2" s="2">
+        <v>45199</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45291</v>
+      </c>
+      <c r="R2" s="2">
+        <v>45382</v>
+      </c>
+      <c r="S2" s="2">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="O3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
         <v>163365</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
         <v>169414</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14">
         <v>120765</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
         <v>161880</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <v>79996</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14">
         <v>91537</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
         <v>44339</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
         <v>52524</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14">
         <v>36589</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14">
         <v>37817</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
         <v>18715</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14">
         <v>18710</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <v>101554</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14">
         <v>14316</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>24400</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>26900</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>31300</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <v>33800</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <v>38500</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="14">
         <v>41700</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="14">
         <v>43000</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
         <v>38700</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14">
         <v>37500</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
         <v>28400</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14">
         <v>27400</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
         <v>8600</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14">
         <v>18100</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
         <v>10800</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14">
         <v>14100</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
         <v>10000</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14">
         <v>12000</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
         <v>10400</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14">
         <v>11000</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
         <v>7700</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14">
         <v>10600</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
         <v>8200</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14">
         <v>8200</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
         <v>6300</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
         <v>6500</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
         <v>5200</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14">
         <v>5500</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
         <v>900</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
         <v>5300</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
         <v>4600</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14">
         <v>5100</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
         <v>4100</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14">
         <v>4700</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
         <v>5500</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14">
         <v>4500</v>
       </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14">
         <v>3700</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14">
         <v>4400</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14">
         <v>6200</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14">
         <v>3700</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14">
         <v>2700</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14">
         <v>3600</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14">
         <v>5600</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14">
         <v>3400</v>
       </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>198900</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="14">
         <v>163500</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="14">
         <f>565325-H32-G32</f>
         <v>202925</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="14">
         <v>190900</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="14">
         <v>184300</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="14">
         <v>174400</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="14">
         <f>546197-L32-K32</f>
         <v>187497</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14">
         <f>124093-H33-G33</f>
         <v>124093</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14">
         <f>139272-L33-K33</f>
         <v>139272</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14">
         <f>+I32-I33</f>
         <v>78832</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16">
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14">
         <f>+M32-M33</f>
         <v>48225</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14">
         <f>256162-H35-G35</f>
         <v>256162</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14">
         <f>272970-L35-K35</f>
         <v>272970</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14">
         <f>123278-H36-G36</f>
         <v>123278</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14">
         <f>121403-L36-K36</f>
         <v>121403</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14">
         <f>+I35+I36</f>
         <v>379440</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16">
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14">
         <f>+M35+M36</f>
         <v>394373</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14">
         <f>+I34-I37</f>
         <v>-300608</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16">
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14">
         <f>+M34-M37</f>
         <v>-346148</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <f>14111-1553+1867-1183-H39-G39</f>
         <v>13242</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="14">
         <f>3398-2127+5240-1473-L39-K39</f>
         <v>5038</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <f>+I38+I39</f>
         <v>-287366</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="14">
         <f>+M38+M39</f>
         <v>-341110</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <f>15599-H41-G41</f>
         <v>15599</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="12">
         <f>0-L41-K41</f>
         <v>0</v>
       </c>
@@ -2114,11 +2134,11 @@
       <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="14">
         <f>+I40-I41</f>
         <v>-302965</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="14">
         <f>+M40-M41</f>
         <v>-341110</v>
       </c>
@@ -2127,7 +2147,7 @@
       <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="16">
         <f>+M42/M44</f>
         <v>-1188.5365853658536</v>
       </c>
@@ -2136,7 +2156,7 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="12">
         <v>287</v>
       </c>
     </row>
